--- a/biology/Médecine/Thomas_Szasz/Thomas_Szasz.xlsx
+++ b/biology/Médecine/Thomas_Szasz/Thomas_Szasz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Stephen Szasz, né Tamás István Szász ([saːs]) le 15 avril 1920 à Budapest et mort le 8 septembre 2012 (à 92 ans) à Manlius dans l'État de New York, est un psychiatre et professeur émérite de psychiatrie hongrois à la SUNY Upstate Medical University à Syracuse.
 Contestataire et critique de la morale et des fondations scientifiques de la psychiatrie, il exprime ses idées dans de nombreux ouvrages comme The Myth of Mental Illness (Le Mythe de la maladie mentale) publié en 1961 ou The Manufacture of Madness (Fabriquer la folie) publié en 1970. Thomas Szasz est l'un des penseurs de l'antipsychiatrie.
@@ -513,10 +525,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Stephen Szasz nait le 15 avril 1920 à Budapest[1] sous le nom de Tamás István Szász. Il est le deuxième enfant de l'avocat et homme d'affaires Julius Szasz et de Lily Wellisch. En 1938, la famille quitte la Hongrie pour fuir l'antisémitisme et s'installe à Cincinnati (Ohio), dans le Midwest des États-Unis[2]. T. Szasz y poursuit des études et obtient son diplôme de sciences en 1941 et son doctorat de médecine en 1944. Après une période d'internat et de résidence, il se forme à la psychanalyse au Chicago Institute for Psychoanalysis et obtient son diplôme en 1950[3]. Il devient alors membre de l’équipe de l'institut qu'il ne quitte qu'en 1956, après deux années de service militaire à l'hôpital naval de Bethesda (Maryland). Cette même année T. Szasz intègre l'université d'État de New York comme professeur de psychiatrie à l'Upstate Medical Center de Syracuse. Il y devient professeur émérite en 1990[3] et y enseigne avec passion jusqu'à la fin de sa vie[4]. Il est également chercheur adjoint au Cato Institute de Washington D.C.[5].
-T. Szasz meurt le 8 septembre 2012 à Manlius dans l'État de New York, des suites d'une chute[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Stephen Szasz nait le 15 avril 1920 à Budapest sous le nom de Tamás István Szász. Il est le deuxième enfant de l'avocat et homme d'affaires Julius Szasz et de Lily Wellisch. En 1938, la famille quitte la Hongrie pour fuir l'antisémitisme et s'installe à Cincinnati (Ohio), dans le Midwest des États-Unis. T. Szasz y poursuit des études et obtient son diplôme de sciences en 1941 et son doctorat de médecine en 1944. Après une période d'internat et de résidence, il se forme à la psychanalyse au Chicago Institute for Psychoanalysis et obtient son diplôme en 1950. Il devient alors membre de l’équipe de l'institut qu'il ne quitte qu'en 1956, après deux années de service militaire à l'hôpital naval de Bethesda (Maryland). Cette même année T. Szasz intègre l'université d'État de New York comme professeur de psychiatrie à l'Upstate Medical Center de Syracuse. Il y devient professeur émérite en 1990 et y enseigne avec passion jusqu'à la fin de sa vie. Il est également chercheur adjoint au Cato Institute de Washington D.C..
+T. Szasz meurt le 8 septembre 2012 à Manlius dans l'État de New York, des suites d'une chute.
 </t>
         </is>
       </c>
@@ -545,17 +559,17 @@
           <t>Travaux et apports</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Promoteur d'une certaine « antipsychiatrie », Thomas Szasz a été reconnu comme « L’homme qui a contraint la psychiatrie à admettre l’existence et l’importance des conflits moraux et éthiques »[7]. Il publie son premier ouvrage en ce sens en 1961 : The Myth of Mental Illness (Le Mythe de la maladie mentale). L'auteur y remet en cause l'existence de la maladie mentale qui est « réduite au nom que donne une catégorie socioprofessionnelle, les psychiatres, à des comportements déviants pour justifier une pratique obscure et mal fondée qui n’a d’autre sens que de réduire les déviances »[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Promoteur d'une certaine « antipsychiatrie », Thomas Szasz a été reconnu comme « L’homme qui a contraint la psychiatrie à admettre l’existence et l’importance des conflits moraux et éthiques ». Il publie son premier ouvrage en ce sens en 1961 : The Myth of Mental Illness (Le Mythe de la maladie mentale). L'auteur y remet en cause l'existence de la maladie mentale qui est « réduite au nom que donne une catégorie socioprofessionnelle, les psychiatres, à des comportements déviants pour justifier une pratique obscure et mal fondée qui n’a d’autre sens que de réduire les déviances ».
 Dans la relativité du normal et du pathologique, il y a des niveaux de réalité dont le premier niveau est celui de la réalité physique objectale dite « objective » des êtres, faits et objets directement observables, quantifiables et mesurables par tous. Au deuxième niveau est la réalité psychique des significations et valeurs conférées à ces êtres, faits et objets de la réalité physique. Au troisième niveau est la réalité symbolique des croyances de la Religion et règles de conduite de la Morale qui oriente et délimite les significations et valeurs possibles de la réalité psychique imaginaire. L’autorité politique, étant le pouvoir sénatorial de l’auteur des lois, se fonde sur la réalité symbolique la Religion et la Morale. Une Théocratie se fonde sur la Religion seule, tandis que la Démocratie se fonde sur une Morale consensuelle.
 C’est avec les pierres de la Religion et les briques de la Morale que se bâtissent les hôpitaux psychiatriques et les prisons où toute déviance est socialement et politiquement folie et félonie.
 L’autorité politique des lois et règlements est mise en œuvre par l’exécutif des pouvoirs judiciaire et policier du potentas, ou pouvoir consulaire dans la Rome antique, et le podestas administratif des prisons et hôpitaux psychiatriques. Le pouvoir social immédiat de Marcel Mauss est le rejet, l’exclusion et le mépris de la communauté sociale.
 À ces réalités, il y a aussi la « réalité bureaucratique » où est « réel » tout ce qui est inscrit sur des documents officiels. Dans le ciel calme et serein du début des années 1970, un rapport d’expérimentation publié dans la vénérable revue Science a éclaté comme une bombe.
-Des étudiants « normaux » et parfaitement sains se sont portés volontaires pour cette expérimentation. Ils ont été présentés à un hôpital psychiatrique avec leur « dossier médical » mentionnant leur « maladie ». Pendant leur séjour, tout le monde les prenait vraiment pour « fous » avec des symptômes appropriés à leur « maladie officielle », sauf les « fous », bien entendu[9].
+Des étudiants « normaux » et parfaitement sains se sont portés volontaires pour cette expérimentation. Ils ont été présentés à un hôpital psychiatrique avec leur « dossier médical » mentionnant leur « maladie ». Pendant leur séjour, tout le monde les prenait vraiment pour « fous » avec des symptômes appropriés à leur « maladie officielle », sauf les « fous », bien entendu.
 Dr Thomas S. Szasz a lancé une violente charge contre les vices de pensée et d’action en santé mentale, comme celle de Dr Anthony Wilden avec sa théorie des contextes en épistémologie, qui rendent douteuse la « scientificité » des modèles médicaux.
-Commission des citoyens pour les droits de l'homme et liens avec l'Église de scientologie
-En 1969, Thomas Szasz cofonde la Commission des citoyens pour les droits de l'homme, en partenariat avec l'Église de Scientologie. L'objectif est de lutter contre les abus de la psychiatrie, plus particulièrement contre les hospitalisations contraintes. Cette alliance crée la polémique et entame sa crédibilité, y compris parmi ses soutiens habituels[2]. En 2009, lors d'une interview accordée à Lynne Malcolm et diffusée par Radio Australie[10], il revient sur ce choix controversé. Il le justifie par une approche avant tout pragmatique : cette commission est la seule structure de l'époque qui est active dans l'aide aux personnes retenues contre leur gré dans les hôpitaux psychiatriques et qui dispose des moyens pour agir (financement, accès à des avocats, etc.). Cependant Thomas Szasz rappelle qu'il n'adhère pas plus aux croyances de la scientologie qu'à celles d'autres religions, puisqu'il se définit comme athée.
 </t>
         </is>
       </c>
@@ -581,16 +595,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux et apports</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Commission des citoyens pour les droits de l'homme et liens avec l'Église de scientologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1969, Thomas Szasz cofonde la Commission des citoyens pour les droits de l'homme, en partenariat avec l'Église de Scientologie. L'objectif est de lutter contre les abus de la psychiatrie, plus particulièrement contre les hospitalisations contraintes. Cette alliance crée la polémique et entame sa crédibilité, y compris parmi ses soutiens habituels. En 2009, lors d'une interview accordée à Lynne Malcolm et diffusée par Radio Australie, il revient sur ce choix controversé. Il le justifie par une approche avant tout pragmatique : cette commission est la seule structure de l'époque qui est active dans l'aide aux personnes retenues contre leur gré dans les hôpitaux psychiatriques et qui dispose des moyens pour agir (financement, accès à des avocats, etc.). Cependant Thomas Szasz rappelle qu'il n'adhère pas plus aux croyances de la scientologie qu'à celles d'autres religions, puisqu'il se définit comme athée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thomas_Szasz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Szasz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Articles
-(en) « The Myth of Mental Illness », American Psychologist, vol. 15, no 2,‎ février 1960, p. 113-118 (ISSN 0003-066X, lire en ligne)
-(en) « Who Killed Michael Jackson? », The Freeman: Ideas On Liberty, vol. 62, no 2,‎ march 2012, p. 33-34 (lire en ligne)
-Ouvrages
-Les ouvrages sont présentés par date de publication originale croissante.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) « The Myth of Mental Illness », American Psychologist, vol. 15, no 2,‎ février 1960, p. 113-118 (ISSN 0003-066X, lire en ligne)
+(en) « Who Killed Michael Jackson? », The Freeman: Ideas On Liberty, vol. 62, no 2,‎ march 2012, p. 33-34 (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thomas_Szasz</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Szasz</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les ouvrages sont présentés par date de publication originale croissante.
 Douleur et Plaisir : étude des sensations corporelles (Pain and Pleasure: A Study of Bodily Feelings), 1957
 Le Mythe de la maladie mentale (The Myth of Mental Illness: Foundations of a Theory of Personal Conduct), 1961
 La Loi, la Liberté et la Psychiatrie (Law, Liberty, and Psychiatry: An Inquiry into the Social Uses of Mental Health Practices), 1963
@@ -629,34 +719,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Thomas_Szasz</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_Szasz</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas S. Szasz est distingué par de nombreuses récompenses, au niveau national ou international[11]. Il reçoit notamment, en 1973, le prix de l'humaniste de l'année[12] de l'American Humanist Association, ou en 1998, le prix Rollo May[13] de la Society for Humanistic Psychology, division de l'American Psychological Association.
-Le Center for Independent Thought décerne par ailleurs chaque année, depuis 1991, le prix Thomas S. Szasz (Thomas S. Szasz Award for Outstanding Contributions to the Cause of Civil Liberties)[14] à une personne ou une organisation, américaine ou étrangère, pour sa contribution exceptionnelle à la cause des libertés civiles.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas S. Szasz est distingué par de nombreuses récompenses, au niveau national ou international. Il reçoit notamment, en 1973, le prix de l'humaniste de l'année de l'American Humanist Association, ou en 1998, le prix Rollo May de la Society for Humanistic Psychology, division de l'American Psychological Association.
+Le Center for Independent Thought décerne par ailleurs chaque année, depuis 1991, le prix Thomas S. Szasz (Thomas S. Szasz Award for Outstanding Contributions to the Cause of Civil Liberties) à une personne ou une organisation, américaine ou étrangère, pour sa contribution exceptionnelle à la cause des libertés civiles.
 </t>
         </is>
       </c>
